--- a/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,06</t>
+          <t>0,88; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 12,29</t>
+          <t>2,76; 12,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,77</t>
+          <t>3,96; 13,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,55; 29,17</t>
+          <t>13,28; 28,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,82</t>
+          <t>1,57; 9,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 19,46</t>
+          <t>6,85; 19,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 12,35</t>
+          <t>1,08; 12,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,93; 15,83</t>
+          <t>8,0; 15,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 7,05</t>
+          <t>1,67; 6,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,51</t>
+          <t>5,57; 13,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 11,29</t>
+          <t>3,44; 10,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 19,93</t>
+          <t>11,62; 19,44</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,43</t>
+          <t>1,76; 4,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,84</t>
+          <t>3,83; 7,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,93</t>
+          <t>4,89; 9,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,27</t>
+          <t>9,22; 14,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,98</t>
+          <t>3,35; 6,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,6</t>
+          <t>5,29; 9,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,93</t>
+          <t>5,31; 10,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,92</t>
+          <t>8,67; 13,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,03</t>
+          <t>2,87; 5,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,03</t>
+          <t>5,04; 7,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,82</t>
+          <t>5,71; 8,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,73</t>
+          <t>9,5; 12,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,24</t>
+          <t>4,12; 7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,08</t>
+          <t>6,51; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,71</t>
+          <t>3,7; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 14,74</t>
+          <t>9,68; 14,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,46</t>
+          <t>4,34; 7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,95</t>
+          <t>8,24; 12,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,98</t>
+          <t>5,65; 9,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 15,51</t>
+          <t>11,95; 15,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,75</t>
+          <t>4,52; 6,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,83; 10,38</t>
+          <t>7,78; 10,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,32</t>
+          <t>5,12; 7,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 14,38</t>
+          <t>11,4; 14,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,93</t>
+          <t>4,19; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,49</t>
+          <t>5,64; 9,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,62</t>
+          <t>2,08; 4,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 16,5</t>
+          <t>10,77; 16,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,09</t>
+          <t>4,23; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,69</t>
+          <t>6,51; 10,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,93</t>
+          <t>3,63; 7,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 48,96</t>
+          <t>11,34; 49,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,44</t>
+          <t>4,63; 7,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,39</t>
+          <t>6,5; 9,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,33</t>
+          <t>3,17; 5,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 37,08</t>
+          <t>12,05; 36,82</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,16</t>
+          <t>4,12; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,6</t>
+          <t>5,95; 9,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,78</t>
+          <t>5,48; 8,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,04</t>
+          <t>6,68; 9,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,67</t>
+          <t>6,24; 9,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,52</t>
+          <t>7,79; 11,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,73</t>
+          <t>6,28; 9,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,84; 10,79</t>
+          <t>7,78; 10,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,71</t>
+          <t>5,57; 7,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,93</t>
+          <t>7,3; 10,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,65</t>
+          <t>6,37; 8,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,03</t>
+          <t>7,7; 9,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,75</t>
+          <t>4,23; 5,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,44</t>
+          <t>6,37; 8,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 6,41</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,28; 12,63</t>
+          <t>10,16; 12,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,05</t>
+          <t>5,37; 7,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 10,13</t>
+          <t>8,08; 10,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 7,87</t>
+          <t>6,01; 7,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 23,21</t>
+          <t>11,08; 22,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,14</t>
+          <t>5,05; 6,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 8,96</t>
+          <t>7,56; 8,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,85</t>
+          <t>5,65; 6,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,88</t>
+          <t>11,11; 17,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,54</t>
+          <t>1,74; 4,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 12,43</t>
+          <t>3,99; 7,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,98</t>
+          <t>5,21; 9,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 28,96</t>
+          <t>10,33; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 9,5</t>
+          <t>3,66; 6,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 19,96</t>
+          <t>6,11; 10,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 12,09</t>
+          <t>5,12; 9,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 15,91</t>
+          <t>8,2; 12,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,85</t>
+          <t>2,97; 4,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 13,64</t>
+          <t>5,54; 8,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,58</t>
+          <t>5,74; 8,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 19,44</t>
+          <t>9,99; 13,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,44</t>
+          <t>4,12; 7,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,95</t>
+          <t>6,51; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,09</t>
+          <t>3,7; 6,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 14,39</t>
+          <t>5,27; 12,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,7</t>
+          <t>4,34; 7,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,84</t>
+          <t>8,24; 12,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,04</t>
+          <t>5,65; 9,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,23</t>
+          <t>11,76; 15,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,11</t>
+          <t>4,52; 6,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,92</t>
+          <t>7,78; 10,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 8,7</t>
+          <t>5,12; 7,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 12,98</t>
+          <t>7,84; 13,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>22,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,28</t>
+          <t>4,19; 7,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,1</t>
+          <t>5,64; 9,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,79</t>
+          <t>2,08; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 14,57</t>
+          <t>10,31; 15,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,58</t>
+          <t>4,23; 8,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,23</t>
+          <t>6,51; 10,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,1</t>
+          <t>3,63; 7,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 15,51</t>
+          <t>10,52; 63,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,76</t>
+          <t>4,63; 7,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,5</t>
+          <t>6,5; 9,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,35</t>
+          <t>3,17; 5,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 14,44</t>
+          <t>11,39; 49,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,87</t>
+          <t>4,12; 7,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,86</t>
+          <t>5,95; 9,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,65</t>
+          <t>5,48; 8,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,6</t>
+          <t>6,63; 9,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,01</t>
+          <t>6,32; 9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,7</t>
+          <t>7,79; 11,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,02</t>
+          <t>6,28; 9,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 49,23</t>
+          <t>6,62; 10,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,26</t>
+          <t>5,59; 7,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,28</t>
+          <t>7,3; 10,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,38</t>
+          <t>6,37; 8,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 36,82</t>
+          <t>7,23; 9,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,17</t>
+          <t>4,23; 5,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,65</t>
+          <t>6,37; 8,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,8</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,68; 9,99</t>
+          <t>8,12; 11,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,51</t>
+          <t>5,4; 7,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,53</t>
+          <t>8,08; 10,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,78</t>
+          <t>6,01; 7,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,82</t>
+          <t>10,48; 30,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 7,84</t>
+          <t>5,08; 6,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,01</t>
+          <t>7,56; 8,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,75</t>
+          <t>5,65; 6,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,89</t>
+          <t>10,27; 21,36</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,99%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>11,43%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,9%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>12,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 5,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 8,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 6,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10,16; 12,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 7,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,08; 10,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 7,74</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 22,95</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,05; 6,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 8,98</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 6,78</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 17,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad física</t>
+          <t>Hogares con personas con limitación por discapacidad física</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,22</t>
+          <t>1,62; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,77</t>
+          <t>4,07; 7,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,09</t>
+          <t>5,17; 9,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,57</t>
+          <t>10,43; 15,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,64</t>
+          <t>3,55; 6,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 10,3</t>
+          <t>6,06; 10,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,19</t>
+          <t>5,28; 9,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 12,5</t>
+          <t>8,04; 12,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,89</t>
+          <t>2,97; 5,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,23</t>
+          <t>5,67; 8,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,45</t>
+          <t>5,73; 8,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 13,11</t>
+          <t>9,86; 13,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,28</t>
+          <t>4,14; 7,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,1</t>
+          <t>6,51; 10,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,79</t>
+          <t>3,85; 6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 12,91</t>
+          <t>5,44; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,58</t>
+          <t>4,37; 7,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,23</t>
+          <t>8,15; 12,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 9,1</t>
+          <t>5,5; 9,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,22</t>
+          <t>11,74; 15,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,76</t>
+          <t>4,51; 6,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,5</t>
+          <t>7,71; 10,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,35</t>
+          <t>5,07; 7,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,39</t>
+          <t>7,45; 13,33</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,87</t>
+          <t>4,3; 7,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,86</t>
+          <t>5,62; 9,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,65</t>
+          <t>2,04; 4,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 15,51</t>
+          <t>10,0; 15,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,01</t>
+          <t>4,27; 7,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,7</t>
+          <t>6,35; 10,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,02</t>
+          <t>3,62; 6,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 63,45</t>
+          <t>10,5; 60,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,26</t>
+          <t>4,68; 7,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,28</t>
+          <t>6,53; 9,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,38</t>
+          <t>3,19; 5,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 49,29</t>
+          <t>11,32; 47,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,17</t>
+          <t>4,23; 7,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,65</t>
+          <t>5,86; 9,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,8</t>
+          <t>5,54; 8,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,89</t>
+          <t>6,58; 9,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 9,64</t>
+          <t>6,17; 9,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,53</t>
+          <t>8,02; 11,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,78</t>
+          <t>6,36; 9,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,02</t>
+          <t>6,71; 10,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,59; 7,81</t>
+          <t>5,64; 7,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 10,01</t>
+          <t>7,36; 10,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,75</t>
+          <t>6,33; 8,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,54</t>
+          <t>7,0; 9,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,8</t>
+          <t>4,26; 5,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,33</t>
+          <t>6,39; 8,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,74; 6,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,87</t>
+          <t>8,35; 11,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,14</t>
+          <t>5,42; 7,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,08; 10,13</t>
+          <t>8,09; 10,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 7,74</t>
+          <t>6,05; 7,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 30,86</t>
+          <t>10,52; 31,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,19</t>
+          <t>5,08; 6,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 8,98</t>
+          <t>7,55; 8,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,78</t>
+          <t>5,65; 6,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,36</t>
+          <t>10,32; 22,62</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad física</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40336</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47171</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>81254</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34292</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>55618</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>47306</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>75702</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53766</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95954</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>94476</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>156956</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11257; 29606</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28610; 54324</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34870; 61329</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>66268; 97901</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24406; 46579</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>42224; 72290</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35520; 61928</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58289; 89947</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41099; 70010</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79353; 116551</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>77261; 117224</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>134105; 182146</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53011</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82150</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51743</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>116030</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>55863</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>102689</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>74802</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>128812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>108874</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>184839</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>126545</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>244842</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39780; 69058</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>66258; 102656</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39355; 67351</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>64900; 155773</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>42354; 72031</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>84083; 124393</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>57373; 94844</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112506; 146019</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86986; 131247</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>157999; 214385</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>104800; 149927</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>160225; 286820</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39429</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56294</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>23940</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>88974</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40573</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>64707</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40474</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>286809</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80003</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>121000</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>64414</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>375783</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29168; 52490</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42579; 72432</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15470; 35378</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>70456; 111004</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29211; 54042</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49342; 83511</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28382; 54010</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>98029; 566033</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63762; 98651</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100171; 146225</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49334; 84425</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>185443; 784251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51696</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>71725</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>65640</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>75733</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80801</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>100339</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>82132</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92787</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>132497</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>172064</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147772</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>168520</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39893; 68213</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55519; 91358</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51963; 83929</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60947; 92586</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>64041; 98345</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>84324; 122175</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66422; 103214</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>73429; 111401</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>111805; 157008</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>147153; 200694</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>125337; 172638</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>141439; 194242</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1106</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>163611</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>250504</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>188494</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>361991</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>211529</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>323353</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>244714</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>584109</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>375140</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>573858</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>433208</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>946100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>139518; 191126</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>219117; 283385</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>161060; 215899</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>288845; 406715</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>183046; 240842</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>287725; 357100</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>214419; 275554</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>390677; 1159719</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>338131; 415727</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>527507; 620899</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>392163; 478357</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>739944; 1622589</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>